--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\ipms\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75935BBE-1C64-405F-BE9A-90F1EE397AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8826778-03A1-4FF9-B30D-15E15DDE2E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="105" windowWidth="18180" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="222">
   <si>
     <t>cost</t>
   </si>
@@ -430,15 +430,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成前端json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -839,6 +831,30 @@
     <t>of</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄送人，用逗号分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_TYPE_COPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄送节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -969,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1001,22 +1017,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1027,6 +1029,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1309,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4B21F6-483A-4C5D-8316-7E412FCC4209}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1326,123 +1331,145 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>198</v>
+      <c r="A3" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>199</v>
+      <c r="A4" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>220</v>
       </c>
       <c r="F4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="E5" t="s">
+        <v>219</v>
       </c>
       <c r="F5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19"/>
-      <c r="C7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,10 +1479,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L16386"/>
+  <dimension ref="A1:L16387"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1494,7 +1521,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -1506,15 +1533,15 @@
         <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="str">
         <f>_xlfn.CONCAT("(""", A4, """)")</f>
@@ -1544,7 +1571,7 @@
         <v>rs.getString("id")</v>
       </c>
       <c r="J4" s="6" t="str">
-        <f t="shared" ref="J4:J27" si="0">IF(F4="LocalDate", "TimeUtil.from(rs.getDate"&amp;B4&amp;")", IF(F4="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;B4&amp;")",I4))</f>
+        <f t="shared" ref="J4:J28" si="0">IF(F4="LocalDate", "TimeUtil.from(rs.getDate"&amp;B4&amp;")", IF(F4="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;B4&amp;")",I4))</f>
         <v>rs.getString("id")</v>
       </c>
       <c r="K4" s="6" t="str">
@@ -1561,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" ref="B5:B37" si="1">_xlfn.CONCAT("(""", A5, """)")</f>
+        <f t="shared" ref="B5:B38" si="1">_xlfn.CONCAT("(""", A5, """)")</f>
         <v>("cost")</v>
       </c>
       <c r="C5" t="s">
@@ -1574,11 +1601,11 @@
         <v>71</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H37" si="2">UPPER(LEFT(D5,1))&amp;MID(D5,2,LEN(D5)-1)</f>
+        <f t="shared" ref="H5:H38" si="2">UPPER(LEFT(D5,1))&amp;MID(D5,2,LEN(D5)-1)</f>
         <v>Cost</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I37" si="3">"rs.get"&amp;UPPER(LEFT(F5,1))&amp;MID(F5,2,LEN(F5)-1)&amp;"("""&amp;A5&amp;""")"</f>
+        <f t="shared" ref="I5:I38" si="3">"rs.get"&amp;UPPER(LEFT(F5,1))&amp;MID(F5,2,LEN(F5)-1)&amp;"("""&amp;A5&amp;""")"</f>
         <v>rs.getDouble("cost")</v>
       </c>
       <c r="J5" t="str">
@@ -1586,17 +1613,17 @@
         <v>rs.getDouble("cost")</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K36" si="4">"form.set"&amp;H5&amp;"("&amp;J5&amp;");"</f>
+        <f t="shared" ref="K5:K37" si="4">"form.set"&amp;H5&amp;"("&amp;J5&amp;");"</f>
         <v>form.setCost(rs.getDouble("cost"));</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L37" si="5">"form.set"&amp;H5&amp;"(rbs.get"&amp;H5&amp;"());"</f>
+        <f t="shared" ref="L5:L38" si="5">"form.set"&amp;H5&amp;"(rbs.get"&amp;H5&amp;"());"</f>
         <v>form.setCost(rbs.getCost());</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1606,10 +1633,10 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -1629,7 +1656,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1639,10 +1666,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
         <v>139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -2042,7 +2069,7 @@
     </row>
     <row r="18" spans="1:12" s="10" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="9" t="str">
         <f t="shared" si="1"/>
@@ -2080,7 +2107,7 @@
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1">
       <c r="A19" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="str">
         <f>_xlfn.CONCAT("(""", A19, """)")</f>
@@ -2090,7 +2117,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>70</v>
@@ -2118,7 +2145,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="3" t="str">
         <f>_xlfn.CONCAT("(""", A20, """)")</f>
@@ -2128,7 +2155,7 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
@@ -2308,501 +2335,539 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>("managers")</v>
+        <v>("copy")</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>216</v>
+      </c>
+      <c r="E25" t="s">
+        <v>217</v>
       </c>
       <c r="F25" t="s">
         <v>70</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="2"/>
-        <v>Managers</v>
+        <v>Copy</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="3"/>
-        <v>rs.getString("managers")</v>
+        <v>rs.getString("copy")</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>rs.getString("managers")</v>
+        <v>rs.getString("copy")</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="4"/>
-        <v>form.setManagers(rs.getString("managers"));</v>
+        <v>form.setCopy(rs.getString("copy"));</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" si="5"/>
-        <v>form.setManagers(rbs.getManagers());</v>
+        <v>form.setCopy(rbs.getCopy());</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>("del_reason")</v>
+        <v>("managers")</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
         <v>70</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="2"/>
-        <v>DeleteReason</v>
+        <v>Managers</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="3"/>
-        <v>rs.getString("del_reason")</v>
+        <v>rs.getString("managers")</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>rs.getString("del_reason")</v>
+        <v>rs.getString("managers")</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="4"/>
-        <v>form.setDeleteReason(rs.getString("del_reason"));</v>
+        <v>form.setManagers(rs.getString("managers"));</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="5"/>
-        <v>form.setDeleteReason(rbs.getDeleteReason());</v>
+        <v>form.setManagers(rbs.getManagers());</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>("srv_name")</v>
+        <v>("del_reason")</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="2"/>
-        <v>ServiceName</v>
+        <v>DeleteReason</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="3"/>
-        <v>rs.getString("srv_name")</v>
+        <v>rs.getString("del_reason")</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>rs.getString("srv_name")</v>
+        <v>rs.getString("del_reason")</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="4"/>
-        <v>form.setServiceName(rs.getString("srv_name"));</v>
+        <v>form.setDeleteReason(rs.getString("del_reason"));</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="5"/>
-        <v>form.setServiceName(rbs.getServiceName());</v>
+        <v>form.setDeleteReason(rbs.getDeleteReason());</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>("end_time")</v>
+        <v>("srv_name")</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="2"/>
-        <v>EndTime</v>
+        <v>ServiceName</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="3"/>
-        <v>rs.getLocalDateTime("end_time")</v>
+        <v>rs.getString("srv_name")</v>
       </c>
       <c r="J28" t="str">
-        <f>IF(F28="LocalDate", "TimeUtil.from(rs.getDate"&amp;B28&amp;")", IF(F28="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;B28&amp;")",I28))</f>
-        <v>TimeUtil.from(rs.getTimestamp("end_time"))</v>
+        <f t="shared" si="0"/>
+        <v>rs.getString("srv_name")</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="4"/>
-        <v>form.setEndTime(TimeUtil.from(rs.getTimestamp("end_time")));</v>
+        <v>form.setServiceName(rs.getString("srv_name"));</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="5"/>
-        <v>form.setEndTime(rbs.getEndTime());</v>
+        <v>form.setServiceName(rbs.getServiceName());</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>("proc_inst_id")</v>
+        <v>("end_time")</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="2"/>
-        <v>ProcessInstanceId</v>
+        <v>EndTime</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="3"/>
-        <v>rs.getString("proc_inst_id")</v>
+        <v>rs.getLocalDateTime("end_time")</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" ref="J29:J37" si="6">IF(F29="LocalDate", "TimeUtil.from(rs.getDate"&amp;B29&amp;")", IF(F29="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;B29&amp;")",I29))</f>
-        <v>rs.getString("proc_inst_id")</v>
+        <f>IF(F29="LocalDate", "TimeUtil.from(rs.getDate"&amp;B29&amp;")", IF(F29="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;B29&amp;")",I29))</f>
+        <v>TimeUtil.from(rs.getTimestamp("end_time"))</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="4"/>
-        <v>form.setProcessInstanceId(rs.getString("proc_inst_id"));</v>
+        <v>form.setEndTime(TimeUtil.from(rs.getTimestamp("end_time")));</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="5"/>
-        <v>form.setProcessInstanceId(rbs.getProcessInstanceId());</v>
+        <v>form.setEndTime(rbs.getEndTime());</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>("proc_def_key")</v>
+        <v>("proc_inst_id")</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
         <v>70</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
-        <v>ProcessDefinitionKey</v>
+        <v>ProcessInstanceId</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="3"/>
+        <v>rs.getString("proc_inst_id")</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30:J38" si="6">IF(F30="LocalDate", "TimeUtil.from(rs.getDate"&amp;B30&amp;")", IF(F30="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;B30&amp;")",I30))</f>
+        <v>rs.getString("proc_inst_id")</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setProcessInstanceId(rs.getString("proc_inst_id"));</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setProcessInstanceId(rbs.getProcessInstanceId());</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>("proc_def_key")</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>ProcessDefinitionKey</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
         <v>rs.getString("proc_def_key")</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="6"/>
         <v>rs.getString("proc_def_key")</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K31" t="str">
         <f t="shared" si="4"/>
         <v>form.setProcessDefinitionKey(rs.getString("proc_def_key"));</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="5"/>
         <v>form.setProcessDefinitionKey(rbs.getProcessDefinitionKey());</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="10" customFormat="1">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:12" s="10" customFormat="1">
+      <c r="A32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="9" t="str">
+      <c r="B32" s="9" t="str">
         <f t="shared" si="1"/>
         <v>("proc_def_id")</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="10" t="str">
+      <c r="H32" s="10" t="str">
         <f t="shared" si="2"/>
         <v>ProcessDefinitionId</v>
       </c>
-      <c r="I31" s="10" t="str">
+      <c r="I32" s="10" t="str">
         <f t="shared" si="3"/>
         <v>rs.getString("proc_def_id")</v>
       </c>
-      <c r="J31" s="10" t="str">
+      <c r="J32" s="10" t="str">
         <f t="shared" si="6"/>
         <v>rs.getString("proc_def_id")</v>
       </c>
-      <c r="K31" s="10" t="str">
+      <c r="K32" s="10" t="str">
         <f t="shared" si="4"/>
         <v>form.setProcessDefinitionId(rs.getString("proc_def_id"));</v>
       </c>
-      <c r="L31" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="5"/>
         <v>form.setProcessDefinitionId(rbs.getProcessDefinitionId());</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="6" customFormat="1">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:12" s="6" customFormat="1">
+      <c r="A33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>("update_userid")</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H32" s="6" t="str">
+      <c r="H33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>UpdateUserid</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I33" s="6" t="str">
         <f t="shared" si="3"/>
         <v>rs.getString("update_userid")</v>
       </c>
-      <c r="J32" s="6" t="str">
+      <c r="J33" s="6" t="str">
         <f t="shared" si="6"/>
         <v>rs.getString("update_userid")</v>
       </c>
-      <c r="K32" s="6" t="str">
+      <c r="K33" s="6" t="str">
         <f t="shared" si="4"/>
         <v>form.setUpdateUserid(rs.getString("update_userid"));</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="5"/>
         <v>form.setUpdateUserid(rbs.getUpdateUserid());</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>("update_username")</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>43</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>70</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="2"/>
         <v>UpdateUsername</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I34" t="str">
         <f t="shared" si="3"/>
         <v>rs.getString("update_username")</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J34" t="str">
         <f t="shared" si="6"/>
         <v>rs.getString("update_username")</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K34" t="str">
         <f t="shared" si="4"/>
         <v>form.setUpdateUsername(rs.getString("update_username"));</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="5"/>
         <v>form.setUpdateUsername(rbs.getUpdateUsername());</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>("update_date")</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>62</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>38</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>74</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="2"/>
         <v>UpdateDate</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I35" t="str">
         <f t="shared" si="3"/>
         <v>rs.getLocalDateTime("update_date")</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J35" t="str">
         <f t="shared" si="6"/>
         <v>TimeUtil.from(rs.getTimestamp("update_date"))</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K35" t="str">
         <f t="shared" si="4"/>
         <v>form.setUpdateDate(TimeUtil.from(rs.getTimestamp("update_date")));</v>
       </c>
-      <c r="L34" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="5"/>
         <v>form.setUpdateDate(rbs.getUpdateDate());</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="7" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="3" t="str">
+      <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>("create_date")</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>51</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>74</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="2"/>
         <v>CreateDate</v>
       </c>
-      <c r="I35" t="str">
+      <c r="I36" t="str">
         <f t="shared" si="3"/>
         <v>rs.getLocalDateTime("create_date")</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J36" t="str">
         <f t="shared" si="6"/>
         <v>TimeUtil.from(rs.getTimestamp("create_date"))</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="4"/>
         <v>form.setCreateDate(TimeUtil.from(rs.getTimestamp("create_date")));</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="5"/>
         <v>form.setCreateDate(rbs.getCreateDate());</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="3" t="str">
+      <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>("create_userid")</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>39</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="2"/>
         <v>CreateUserid</v>
       </c>
-      <c r="I36" t="str">
+      <c r="I37" t="str">
         <f t="shared" si="3"/>
         <v>rs.getString("create_userid")</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="6"/>
         <v>rs.getString("create_userid")</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="4"/>
         <v>form.setCreateUserid(rs.getString("create_userid"));</v>
       </c>
-      <c r="L36" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="5"/>
         <v>form.setCreateUserid(rbs.getCreateUserid());</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="10" customFormat="1">
-      <c r="A37" s="8" t="s">
+    <row r="38" spans="1:12" s="10" customFormat="1">
+      <c r="A38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="9" t="str">
+      <c r="B38" s="9" t="str">
         <f t="shared" si="1"/>
         <v>("create_username")</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="10" t="str">
+      <c r="H38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>CreateUsername</v>
       </c>
-      <c r="I37" s="10" t="str">
+      <c r="I38" s="10" t="str">
         <f t="shared" si="3"/>
         <v>rs.getString("create_username")</v>
       </c>
-      <c r="J37" s="10" t="str">
+      <c r="J38" s="10" t="str">
         <f t="shared" si="6"/>
         <v>rs.getString("create_username")</v>
       </c>
-      <c r="K37" s="10" t="str">
-        <f>"form.set"&amp;H37&amp;"("&amp;J37&amp;");"</f>
+      <c r="K38" s="10" t="str">
+        <f>"form.set"&amp;H38&amp;"("&amp;J38&amp;");"</f>
         <v>form.setCreateUsername(rs.getString("create_username"));</v>
       </c>
-      <c r="L37" s="6" t="str">
+      <c r="L38" s="6" t="str">
         <f t="shared" si="5"/>
         <v>form.setCreateUsername(rbs.getCreateUsername());</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1"/>
-    </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
     </row>
@@ -51846,6 +51911,9 @@
     </row>
     <row r="16386" spans="1:1">
       <c r="A16386" s="1"/>
+    </row>
+    <row r="16387" spans="1:1">
+      <c r="A16387" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -51857,10 +51925,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F46143-B603-41E7-873E-4A7D1CEC9762}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -51919,7 +51987,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>80</v>
@@ -51934,7 +52002,7 @@
         <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1">
@@ -52984,7 +53052,7 @@
         <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
         <v>70</v>
@@ -53021,7 +53089,7 @@
         <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
         <v>70</v>
@@ -53058,7 +53126,7 @@
         <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
         <v>70</v>
@@ -53095,7 +53163,7 @@
         <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
         <v>70</v>
@@ -53132,7 +53200,7 @@
         <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
         <v>70</v>
@@ -53169,7 +53237,7 @@
         <v>99</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F39" t="s">
         <v>70</v>
@@ -53329,7 +53397,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" s="3" t="str">
         <f>_xlfn.CONCAT("(""", A44, """)")</f>
@@ -53339,7 +53407,7 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
         <v>73</v>
@@ -53366,7 +53434,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B45" s="3"/>
     </row>
@@ -53503,16 +53571,6 @@
       <c r="B51" t="str">
         <f>_xlfn.CONCAT(F49:K49)</f>
         <v xml:space="preserve">null as inv_task_id, null as inv_task_name, null as inv_task_assignee_id, null as inv_task_assignee_name, null as inv_task_def_id, </v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -53530,841 +53588,839 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569424EB-DB18-4DB4-868D-9343CC62DF85}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="26.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1">
-      <c r="A3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A4, """)")</f>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ref="G4:G20" si="0">_xlfn.CONCAT("(""", A4, """)")</f>
         <v>("id")</v>
       </c>
-      <c r="H4" s="14" t="str">
+      <c r="H4" t="str">
         <f>UPPER(LEFT(C4,1))&amp;MID(C4,2,LEN(C4)-1)</f>
         <v>Id</v>
       </c>
-      <c r="I4" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E4,1))&amp;MID(E4,2,LEN(E4)-1)&amp;G4</f>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I20" si="1">"rs.get"&amp;UPPER(LEFT(E4,1))&amp;MID(E4,2,LEN(E4)-1)&amp;G4</f>
         <v>rs.getString("id")</v>
       </c>
-      <c r="J4" s="14" t="str">
-        <f>IF(E4="LocalDate", "TimeUtil.from(rs.getDate"&amp;G4&amp;")", IF(E4="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G4&amp;")",I4))</f>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J20" si="2">IF(E4="LocalDate", "TimeUtil.from(rs.getDate"&amp;G4&amp;")", IF(E4="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G4&amp;")",I4))</f>
         <v>rs.getString("id")</v>
       </c>
-      <c r="K4" s="14" t="str">
+      <c r="K4" t="str">
         <f>"form.set"&amp;H4&amp;"("&amp;J4&amp;");"</f>
         <v>form.setId(rs.getString("id"));</v>
       </c>
-      <c r="L4" s="14" t="str">
+      <c r="L4" t="str">
         <f>"form.set"&amp;H4&amp;"(rbs.get"&amp;H4&amp;"());"</f>
         <v>form.setId(rbs.getId());</v>
       </c>
-      <c r="M4" s="14" t="str">
+      <c r="M4" t="str">
         <f>"dto.set"&amp;H4&amp;"(log.get"&amp;H4&amp;"());"</f>
         <v>dto.setId(log.getId());</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="14" t="s">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("action_")</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H20" si="3">UPPER(LEFT(C5,1))&amp;MID(C5,2,LEN(C5)-1)</f>
+        <v>Action</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getString("action_")</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getString("action_")</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K20" si="4">"form.set"&amp;H5&amp;"("&amp;J5&amp;");"</f>
+        <v>form.setAction(rs.getString("action_"));</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L20" si="5">"form.set"&amp;H5&amp;"(rbs.get"&amp;H5&amp;"());"</f>
+        <v>form.setAction(rbs.getAction());</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:M20" si="6">"dto.set"&amp;H5&amp;"(log.get"&amp;H5&amp;"());"</f>
+        <v>dto.setAction(log.getAction());</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("comment")</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>Comment</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getString("comment")</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getString("comment")</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setComment(rs.getString("comment"));</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setComment(rbs.getComment());</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setComment(log.getComment());</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B7" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E7" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A5, """)")</f>
-        <v>("action_")</v>
-      </c>
-      <c r="H5" s="14" t="str">
-        <f t="shared" ref="H5:H20" si="0">UPPER(LEFT(C5,1))&amp;MID(C5,2,LEN(C5)-1)</f>
-        <v>Action</v>
-      </c>
-      <c r="I5" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E5,1))&amp;MID(E5,2,LEN(E5)-1)&amp;G5</f>
-        <v>rs.getString("action_")</v>
-      </c>
-      <c r="J5" s="14" t="str">
-        <f>IF(E5="LocalDate", "TimeUtil.from(rs.getDate"&amp;G5&amp;")", IF(E5="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G5&amp;")",I5))</f>
-        <v>rs.getString("action_")</v>
-      </c>
-      <c r="K5" s="14" t="str">
-        <f t="shared" ref="K5:K20" si="1">"form.set"&amp;H5&amp;"("&amp;J5&amp;");"</f>
-        <v>form.setAction(rs.getString("action_"));</v>
-      </c>
-      <c r="L5" s="14" t="str">
-        <f t="shared" ref="L5:L20" si="2">"form.set"&amp;H5&amp;"(rbs.get"&amp;H5&amp;"());"</f>
-        <v>form.setAction(rbs.getAction());</v>
-      </c>
-      <c r="M5" s="14" t="str">
-        <f t="shared" ref="M5:M20" si="3">"dto.set"&amp;H5&amp;"(log.get"&amp;H5&amp;"());"</f>
-        <v>dto.setAction(log.getAction());</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="14" t="s">
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("entity_id")</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>EntityId</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getString("entity_id")</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getString("entity_id")</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setEntityId(rs.getString("entity_id"));</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setEntityId(rbs.getEntityId());</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setEntityId(log.getEntityId());</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E8" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A6, """)")</f>
-        <v>("comment")</v>
-      </c>
-      <c r="H6" s="14" t="str">
+      <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Comment</v>
-      </c>
-      <c r="I6" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E6,1))&amp;MID(E6,2,LEN(E6)-1)&amp;G6</f>
-        <v>rs.getString("comment")</v>
-      </c>
-      <c r="J6" s="14" t="str">
-        <f>IF(E6="LocalDate", "TimeUtil.from(rs.getDate"&amp;G6&amp;")", IF(E6="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G6&amp;")",I6))</f>
-        <v>rs.getString("comment")</v>
-      </c>
-      <c r="K6" s="14" t="str">
+        <v>("opt_id")</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>OperatorId</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="1"/>
-        <v>form.setComment(rs.getString("comment"));</v>
-      </c>
-      <c r="L6" s="14" t="str">
+        <v>rs.getString("opt_id")</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="2"/>
-        <v>form.setComment(rbs.getComment());</v>
-      </c>
-      <c r="M6" s="14" t="str">
+        <v>rs.getString("opt_id")</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setOperatorId(rs.getString("opt_id"));</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setOperatorId(rbs.getOperatorId());</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setOperatorId(log.getOperatorId());</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("opt_name")</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="3"/>
-        <v>dto.setComment(log.getComment());</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="14" t="s">
+        <v>OperatorName</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getString("opt_name")</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getString("opt_name")</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setOperatorName(rs.getString("opt_name"));</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setOperatorName(rbs.getOperatorName());</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setOperatorName(log.getOperatorName());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A7, """)")</f>
-        <v>("entity_id")</v>
-      </c>
-      <c r="H7" s="14" t="str">
+      <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>EntityId</v>
-      </c>
-      <c r="I7" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E7,1))&amp;MID(E7,2,LEN(E7)-1)&amp;G7</f>
-        <v>rs.getString("entity_id")</v>
-      </c>
-      <c r="J7" s="14" t="str">
-        <f>IF(E7="LocalDate", "TimeUtil.from(rs.getDate"&amp;G7&amp;")", IF(E7="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G7&amp;")",I7))</f>
-        <v>rs.getString("entity_id")</v>
-      </c>
-      <c r="K7" s="14" t="str">
+        <v>("proc_def_id")</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>ProcessDefinitionId</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="1"/>
-        <v>form.setEntityId(rs.getString("entity_id"));</v>
-      </c>
-      <c r="L7" s="14" t="str">
+        <v>rs.getString("proc_def_id")</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="2"/>
-        <v>form.setEntityId(rbs.getEntityId());</v>
-      </c>
-      <c r="M7" s="14" t="str">
+        <v>rs.getString("proc_def_id")</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setProcessDefinitionId(rs.getString("proc_def_id"));</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setProcessDefinitionId(rbs.getProcessDefinitionId());</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setProcessDefinitionId(log.getProcessDefinitionId());</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("proc_def_key")</v>
+      </c>
+      <c r="H11" t="str">
         <f t="shared" si="3"/>
-        <v>dto.setEntityId(log.getEntityId());</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="14" t="s">
+        <v>ProcessDefinitionKey</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getString("proc_def_key")</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getString("proc_def_key")</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setProcessDefinitionKey(rs.getString("proc_def_key"));</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setProcessDefinitionKey(rbs.getProcessDefinitionKey());</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setProcessDefinitionKey(log.getProcessDefinitionKey());</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("proc_inst_id")</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>ProcessInstanceId</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getString("proc_inst_id")</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getString("proc_inst_id")</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setProcessInstanceId(rs.getString("proc_inst_id"));</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setProcessInstanceId(rbs.getProcessInstanceId());</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setProcessInstanceId(log.getProcessInstanceId());</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("srv_name")</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>ServiceName</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getString("srv_name")</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getString("srv_name")</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setServiceName(rs.getString("srv_name"));</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setServiceName(rbs.getServiceName());</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setServiceName(log.getServiceName());</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="B14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("sort_")</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>Sort</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getInt("sort_")</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getInt("sort_")</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setSort(rs.getInt("sort_"));</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setSort(rbs.getSort());</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setSort(log.getSort());</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F15" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A8, """)")</f>
-        <v>("opt_id")</v>
-      </c>
-      <c r="H8" s="14" t="str">
+      <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>OperatorId</v>
-      </c>
-      <c r="I8" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E8,1))&amp;MID(E8,2,LEN(E8)-1)&amp;G8</f>
-        <v>rs.getString("opt_id")</v>
-      </c>
-      <c r="J8" s="14" t="str">
-        <f>IF(E8="LocalDate", "TimeUtil.from(rs.getDate"&amp;G8&amp;")", IF(E8="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G8&amp;")",I8))</f>
-        <v>rs.getString("opt_id")</v>
-      </c>
-      <c r="K8" s="14" t="str">
+        <v>("task_def_key")</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>TaskDefinitionKey</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v>form.setOperatorId(rs.getString("opt_id"));</v>
-      </c>
-      <c r="L8" s="14" t="str">
+        <v>rs.getString("task_def_key")</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="2"/>
-        <v>form.setOperatorId(rbs.getOperatorId());</v>
-      </c>
-      <c r="M8" s="14" t="str">
+        <v>rs.getString("task_def_key")</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setTaskDefinitionKey(rs.getString("task_def_key"));</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setTaskDefinitionKey(rbs.getTaskDefinitionKey());</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setTaskDefinitionKey(log.getTaskDefinitionKey());</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("task_end_time")</v>
+      </c>
+      <c r="H16" t="str">
         <f t="shared" si="3"/>
-        <v>dto.setOperatorId(log.getOperatorId());</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="14" t="s">
+        <v>TaskEndTime</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getLocalDateTime("task_end_time")</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>TimeUtil.from(rs.getTimestamp("task_end_time"))</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setTaskEndTime(TimeUtil.from(rs.getTimestamp("task_end_time")));</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setTaskEndTime(rbs.getTaskEndTime());</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setTaskEndTime(log.getTaskEndTime());</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F17" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A9, """)")</f>
-        <v>("opt_name")</v>
-      </c>
-      <c r="H9" s="14" t="str">
+      <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>OperatorName</v>
-      </c>
-      <c r="I9" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E9,1))&amp;MID(E9,2,LEN(E9)-1)&amp;G9</f>
-        <v>rs.getString("opt_name")</v>
-      </c>
-      <c r="J9" s="14" t="str">
-        <f>IF(E9="LocalDate", "TimeUtil.from(rs.getDate"&amp;G9&amp;")", IF(E9="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G9&amp;")",I9))</f>
-        <v>rs.getString("opt_name")</v>
-      </c>
-      <c r="K9" s="14" t="str">
+        <v>("task_inst_id")</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>TaskInstanceId</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="1"/>
-        <v>form.setOperatorName(rs.getString("opt_name"));</v>
-      </c>
-      <c r="L9" s="14" t="str">
+        <v>rs.getString("task_inst_id")</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="2"/>
-        <v>form.setOperatorName(rbs.getOperatorName());</v>
-      </c>
-      <c r="M9" s="14" t="str">
+        <v>rs.getString("task_inst_id")</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setTaskInstanceId(rs.getString("task_inst_id"));</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setTaskInstanceId(rbs.getTaskInstanceId());</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setTaskInstanceId(log.getTaskInstanceId());</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("task_name")</v>
+      </c>
+      <c r="H18" t="str">
         <f t="shared" si="3"/>
-        <v>dto.setOperatorName(log.getOperatorName());</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="14" t="s">
+        <v>TaskName</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getString("task_name")</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>rs.getString("task_name")</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setTaskName(rs.getString("task_name"));</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setTaskName(rbs.getTaskName());</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setTaskName(log.getTaskName());</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F19" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A10, """)")</f>
-        <v>("proc_def_id")</v>
-      </c>
-      <c r="H10" s="14" t="str">
+      <c r="G19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ProcessDefinitionId</v>
-      </c>
-      <c r="I10" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E10,1))&amp;MID(E10,2,LEN(E10)-1)&amp;G10</f>
-        <v>rs.getString("proc_def_id")</v>
-      </c>
-      <c r="J10" s="14" t="str">
-        <f>IF(E10="LocalDate", "TimeUtil.from(rs.getDate"&amp;G10&amp;")", IF(E10="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G10&amp;")",I10))</f>
-        <v>rs.getString("proc_def_id")</v>
-      </c>
-      <c r="K10" s="14" t="str">
+        <v>("task_result")</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>TaskResult</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="1"/>
-        <v>form.setProcessDefinitionId(rs.getString("proc_def_id"));</v>
-      </c>
-      <c r="L10" s="14" t="str">
+        <v>rs.getString("task_result")</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="2"/>
-        <v>form.setProcessDefinitionId(rbs.getProcessDefinitionId());</v>
-      </c>
-      <c r="M10" s="14" t="str">
+        <v>rs.getString("task_result")</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setTaskResult(rs.getString("task_result"));</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>form.setTaskResult(rbs.getTaskResult());</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="6"/>
+        <v>dto.setTaskResult(log.getTaskResult());</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>("task_start_time")</v>
+      </c>
+      <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>dto.setProcessDefinitionId(log.getProcessDefinitionId());</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A11, """)")</f>
-        <v>("proc_def_key")</v>
-      </c>
-      <c r="H11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ProcessDefinitionKey</v>
-      </c>
-      <c r="I11" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E11,1))&amp;MID(E11,2,LEN(E11)-1)&amp;G11</f>
-        <v>rs.getString("proc_def_key")</v>
-      </c>
-      <c r="J11" s="14" t="str">
-        <f>IF(E11="LocalDate", "TimeUtil.from(rs.getDate"&amp;G11&amp;")", IF(E11="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G11&amp;")",I11))</f>
-        <v>rs.getString("proc_def_key")</v>
-      </c>
-      <c r="K11" s="14" t="str">
+        <v>TaskStartTime</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="1"/>
-        <v>form.setProcessDefinitionKey(rs.getString("proc_def_key"));</v>
-      </c>
-      <c r="L11" s="14" t="str">
+        <v>rs.getLocalDateTime("task_start_time")</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="2"/>
-        <v>form.setProcessDefinitionKey(rbs.getProcessDefinitionKey());</v>
-      </c>
-      <c r="M11" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setProcessDefinitionKey(log.getProcessDefinitionKey());</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A12, """)")</f>
-        <v>("proc_inst_id")</v>
-      </c>
-      <c r="H12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ProcessInstanceId</v>
-      </c>
-      <c r="I12" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E12,1))&amp;MID(E12,2,LEN(E12)-1)&amp;G12</f>
-        <v>rs.getString("proc_inst_id")</v>
-      </c>
-      <c r="J12" s="14" t="str">
-        <f>IF(E12="LocalDate", "TimeUtil.from(rs.getDate"&amp;G12&amp;")", IF(E12="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G12&amp;")",I12))</f>
-        <v>rs.getString("proc_inst_id")</v>
-      </c>
-      <c r="K12" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>form.setProcessInstanceId(rs.getString("proc_inst_id"));</v>
-      </c>
-      <c r="L12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setProcessInstanceId(rbs.getProcessInstanceId());</v>
-      </c>
-      <c r="M12" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setProcessInstanceId(log.getProcessInstanceId());</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A13, """)")</f>
-        <v>("srv_name")</v>
-      </c>
-      <c r="H13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ServiceName</v>
-      </c>
-      <c r="I13" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E13,1))&amp;MID(E13,2,LEN(E13)-1)&amp;G13</f>
-        <v>rs.getString("srv_name")</v>
-      </c>
-      <c r="J13" s="14" t="str">
-        <f>IF(E13="LocalDate", "TimeUtil.from(rs.getDate"&amp;G13&amp;")", IF(E13="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G13&amp;")",I13))</f>
-        <v>rs.getString("srv_name")</v>
-      </c>
-      <c r="K13" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>form.setServiceName(rs.getString("srv_name"));</v>
-      </c>
-      <c r="L13" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setServiceName(rbs.getServiceName());</v>
-      </c>
-      <c r="M13" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setServiceName(log.getServiceName());</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A14, """)")</f>
-        <v>("sort_")</v>
-      </c>
-      <c r="H14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Sort</v>
-      </c>
-      <c r="I14" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E14,1))&amp;MID(E14,2,LEN(E14)-1)&amp;G14</f>
-        <v>rs.getInt("sort_")</v>
-      </c>
-      <c r="J14" s="14" t="str">
-        <f>IF(E14="LocalDate", "TimeUtil.from(rs.getDate"&amp;G14&amp;")", IF(E14="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G14&amp;")",I14))</f>
-        <v>rs.getInt("sort_")</v>
-      </c>
-      <c r="K14" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>form.setSort(rs.getInt("sort_"));</v>
-      </c>
-      <c r="L14" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setSort(rbs.getSort());</v>
-      </c>
-      <c r="M14" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setSort(log.getSort());</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A15, """)")</f>
-        <v>("task_def_key")</v>
-      </c>
-      <c r="H15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>TaskDefinitionKey</v>
-      </c>
-      <c r="I15" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E15,1))&amp;MID(E15,2,LEN(E15)-1)&amp;G15</f>
-        <v>rs.getString("task_def_key")</v>
-      </c>
-      <c r="J15" s="14" t="str">
-        <f>IF(E15="LocalDate", "TimeUtil.from(rs.getDate"&amp;G15&amp;")", IF(E15="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G15&amp;")",I15))</f>
-        <v>rs.getString("task_def_key")</v>
-      </c>
-      <c r="K15" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>form.setTaskDefinitionKey(rs.getString("task_def_key"));</v>
-      </c>
-      <c r="L15" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setTaskDefinitionKey(rbs.getTaskDefinitionKey());</v>
-      </c>
-      <c r="M15" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setTaskDefinitionKey(log.getTaskDefinitionKey());</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A16, """)")</f>
-        <v>("task_end_time")</v>
-      </c>
-      <c r="H16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>TaskEndTime</v>
-      </c>
-      <c r="I16" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E16,1))&amp;MID(E16,2,LEN(E16)-1)&amp;G16</f>
-        <v>rs.getLocalDateTime("task_end_time")</v>
-      </c>
-      <c r="J16" s="14" t="str">
-        <f>IF(E16="LocalDate", "TimeUtil.from(rs.getDate"&amp;G16&amp;")", IF(E16="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G16&amp;")",I16))</f>
-        <v>TimeUtil.from(rs.getTimestamp("task_end_time"))</v>
-      </c>
-      <c r="K16" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>form.setTaskEndTime(TimeUtil.from(rs.getTimestamp("task_end_time")));</v>
-      </c>
-      <c r="L16" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setTaskEndTime(rbs.getTaskEndTime());</v>
-      </c>
-      <c r="M16" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setTaskEndTime(log.getTaskEndTime());</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A17, """)")</f>
-        <v>("task_inst_id")</v>
-      </c>
-      <c r="H17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>TaskInstanceId</v>
-      </c>
-      <c r="I17" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E17,1))&amp;MID(E17,2,LEN(E17)-1)&amp;G17</f>
-        <v>rs.getString("task_inst_id")</v>
-      </c>
-      <c r="J17" s="14" t="str">
-        <f>IF(E17="LocalDate", "TimeUtil.from(rs.getDate"&amp;G17&amp;")", IF(E17="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G17&amp;")",I17))</f>
-        <v>rs.getString("task_inst_id")</v>
-      </c>
-      <c r="K17" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>form.setTaskInstanceId(rs.getString("task_inst_id"));</v>
-      </c>
-      <c r="L17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setTaskInstanceId(rbs.getTaskInstanceId());</v>
-      </c>
-      <c r="M17" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setTaskInstanceId(log.getTaskInstanceId());</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A18, """)")</f>
-        <v>("task_name")</v>
-      </c>
-      <c r="H18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>TaskName</v>
-      </c>
-      <c r="I18" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E18,1))&amp;MID(E18,2,LEN(E18)-1)&amp;G18</f>
-        <v>rs.getString("task_name")</v>
-      </c>
-      <c r="J18" s="14" t="str">
-        <f>IF(E18="LocalDate", "TimeUtil.from(rs.getDate"&amp;G18&amp;")", IF(E18="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G18&amp;")",I18))</f>
-        <v>rs.getString("task_name")</v>
-      </c>
-      <c r="K18" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>form.setTaskName(rs.getString("task_name"));</v>
-      </c>
-      <c r="L18" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setTaskName(rbs.getTaskName());</v>
-      </c>
-      <c r="M18" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setTaskName(log.getTaskName());</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A19, """)")</f>
-        <v>("task_result")</v>
-      </c>
-      <c r="H19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>TaskResult</v>
-      </c>
-      <c r="I19" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E19,1))&amp;MID(E19,2,LEN(E19)-1)&amp;G19</f>
-        <v>rs.getString("task_result")</v>
-      </c>
-      <c r="J19" s="14" t="str">
-        <f>IF(E19="LocalDate", "TimeUtil.from(rs.getDate"&amp;G19&amp;")", IF(E19="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G19&amp;")",I19))</f>
-        <v>rs.getString("task_result")</v>
-      </c>
-      <c r="K19" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>form.setTaskResult(rs.getString("task_result"));</v>
-      </c>
-      <c r="L19" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setTaskResult(rbs.getTaskResult());</v>
-      </c>
-      <c r="M19" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setTaskResult(log.getTaskResult());</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="16" t="str">
-        <f>_xlfn.CONCAT("(""", A20, """)")</f>
-        <v>("task_start_time")</v>
-      </c>
-      <c r="H20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>TaskStartTime</v>
-      </c>
-      <c r="I20" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E20,1))&amp;MID(E20,2,LEN(E20)-1)&amp;G20</f>
-        <v>rs.getLocalDateTime("task_start_time")</v>
-      </c>
-      <c r="J20" s="14" t="str">
-        <f>IF(E20="LocalDate", "TimeUtil.from(rs.getDate"&amp;G20&amp;")", IF(E20="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G20&amp;")",I20))</f>
         <v>TimeUtil.from(rs.getTimestamp("task_start_time"))</v>
       </c>
-      <c r="K20" s="14" t="str">
-        <f t="shared" si="1"/>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
         <v>form.setTaskStartTime(TimeUtil.from(rs.getTimestamp("task_start_time")));</v>
       </c>
-      <c r="L20" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
         <v>form.setTaskStartTime(rbs.getTaskStartTime());</v>
       </c>
-      <c r="M20" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="M20" t="str">
+        <f t="shared" si="6"/>
         <v>dto.setTaskStartTime(log.getTaskStartTime());</v>
       </c>
     </row>
@@ -54377,10 +54433,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066959E3-AEB6-4CAC-A71E-6069C712B8FD}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -54394,329 +54450,323 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1">
-      <c r="A2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="13" customFormat="1">
-      <c r="A3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="14" customFormat="1">
-      <c r="A4" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="16" t="str">
+      <c r="G4" s="3" t="str">
         <f>_xlfn.CONCAT("(""", A4, """)")</f>
         <v>("id")</v>
       </c>
-      <c r="H4" s="14" t="str">
+      <c r="H4" t="str">
         <f>UPPER(LEFT(C4,1))&amp;MID(C4,2,LEN(C4)-1)</f>
         <v>Id</v>
       </c>
-      <c r="I4" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E4,1))&amp;MID(E4,2,LEN(E4)-1)&amp;G4</f>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I10" si="0">"rs.get"&amp;UPPER(LEFT(E4,1))&amp;MID(E4,2,LEN(E4)-1)&amp;G4</f>
         <v>rs.getString("id")</v>
       </c>
-      <c r="J4" s="14" t="str">
-        <f>IF(E4="LocalDate", "TimeUtil.from(rs.getDate"&amp;G4&amp;")", IF(E4="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G4&amp;")",I4))</f>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J10" si="1">IF(E4="LocalDate", "TimeUtil.from(rs.getDate"&amp;G4&amp;")", IF(E4="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G4&amp;")",I4))</f>
         <v>rs.getString("id")</v>
       </c>
-      <c r="K4" s="14" t="str">
+      <c r="K4" t="str">
         <f>"form.set"&amp;H4&amp;"("&amp;J4&amp;");"</f>
         <v>form.setId(rs.getString("id"));</v>
       </c>
-      <c r="L4" s="14" t="str">
+      <c r="L4" t="str">
         <f>"dto.set"&amp;H4&amp;"(log.get"&amp;H4&amp;"());"</f>
         <v>dto.setId(log.getId());</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="B5" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>182</v>
       </c>
       <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="16" t="str">
-        <f t="shared" ref="G5:G10" si="0">_xlfn.CONCAT("(""", A5, """)")</f>
+      <c r="G5" s="3" t="str">
+        <f t="shared" ref="G5:G10" si="2">_xlfn.CONCAT("(""", A5, """)")</f>
         <v>("")</v>
       </c>
-      <c r="H5" s="14" t="str">
-        <f t="shared" ref="H5:H10" si="1">UPPER(LEFT(C5,1))&amp;MID(C5,2,LEN(C5)-1)</f>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H10" si="3">UPPER(LEFT(C5,1))&amp;MID(C5,2,LEN(C5)-1)</f>
         <v>ApprovalType</v>
       </c>
-      <c r="I5" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E5,1))&amp;MID(E5,2,LEN(E5)-1)&amp;G5</f>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
         <v>rs.getInt("")</v>
       </c>
-      <c r="J5" s="14" t="str">
-        <f>IF(E5="LocalDate", "TimeUtil.from(rs.getDate"&amp;G5&amp;")", IF(E5="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G5&amp;")",I5))</f>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
         <v>rs.getInt("")</v>
       </c>
-      <c r="K5" s="14" t="str">
-        <f t="shared" ref="K5:K10" si="2">"form.set"&amp;H5&amp;"("&amp;J5&amp;");"</f>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K10" si="4">"form.set"&amp;H5&amp;"("&amp;J5&amp;");"</f>
         <v>form.setApprovalType(rs.getInt(""));</v>
       </c>
-      <c r="L5" s="14" t="str">
-        <f t="shared" ref="L5:L10" si="3">"dto.set"&amp;H5&amp;"(log.get"&amp;H5&amp;"());"</f>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L10" si="5">"dto.set"&amp;H5&amp;"(log.get"&amp;H5&amp;"());"</f>
         <v>dto.setApprovalType(log.getApprovalType());</v>
       </c>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="16" t="str">
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>("")</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>TaskType</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>("")</v>
-      </c>
-      <c r="H6" s="14" t="str">
+        <v>rs.getString("")</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="1"/>
-        <v>TaskType</v>
-      </c>
-      <c r="I6" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E6,1))&amp;MID(E6,2,LEN(E6)-1)&amp;G6</f>
         <v>rs.getString("")</v>
       </c>
-      <c r="J6" s="14" t="str">
-        <f>IF(E6="LocalDate", "TimeUtil.from(rs.getDate"&amp;G6&amp;")", IF(E6="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G6&amp;")",I6))</f>
-        <v>rs.getString("")</v>
-      </c>
-      <c r="K6" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
         <v>form.setTaskType(rs.getString(""));</v>
       </c>
-      <c r="L6" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
         <v>dto.setTaskType(log.getTaskType());</v>
       </c>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="B7" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="E7" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>("")</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>SelectUserType</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>("")</v>
-      </c>
-      <c r="H7" s="14" t="str">
+        <v>rs.getInt("")</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="1"/>
-        <v>SelectUserType</v>
-      </c>
-      <c r="I7" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E7,1))&amp;MID(E7,2,LEN(E7)-1)&amp;G7</f>
         <v>rs.getInt("")</v>
       </c>
-      <c r="J7" s="14" t="str">
-        <f>IF(E7="LocalDate", "TimeUtil.from(rs.getDate"&amp;G7&amp;")", IF(E7="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G7&amp;")",I7))</f>
-        <v>rs.getInt("")</v>
-      </c>
-      <c r="K7" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
         <v>form.setSelectUserType(rs.getInt(""));</v>
       </c>
-      <c r="L7" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
         <v>dto.setSelectUserType(log.getSelectUserType());</v>
       </c>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>184</v>
+        <v>175</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>("")</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>IsActive</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>("")</v>
-      </c>
-      <c r="H8" s="14" t="str">
+        <v>rs.getBoolean("")</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="1"/>
-        <v>IsActive</v>
-      </c>
-      <c r="I8" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E8,1))&amp;MID(E8,2,LEN(E8)-1)&amp;G8</f>
         <v>rs.getBoolean("")</v>
       </c>
-      <c r="J8" s="14" t="str">
-        <f>IF(E8="LocalDate", "TimeUtil.from(rs.getDate"&amp;G8&amp;")", IF(E8="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G8&amp;")",I8))</f>
-        <v>rs.getBoolean("")</v>
-      </c>
-      <c r="K8" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
         <v>form.setIsActive(rs.getBoolean(""));</v>
       </c>
-      <c r="L8" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
         <v>dto.setIsActive(log.getIsActive());</v>
       </c>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="B9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>("")</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>IsPreview</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
+        <v>rs.getBoolean("")</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>rs.getBoolean("")</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>form.setIsPreview(rs.getBoolean(""));</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>dto.setIsPreview(log.getIsPreview());</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>("")</v>
       </c>
-      <c r="H9" s="14" t="str">
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>TaskList</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>rs.getList&lt;TaskDTO&gt;("")</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="1"/>
-        <v>IsPreview</v>
-      </c>
-      <c r="I9" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E9,1))&amp;MID(E9,2,LEN(E9)-1)&amp;G9</f>
-        <v>rs.getBoolean("")</v>
-      </c>
-      <c r="J9" s="14" t="str">
-        <f>IF(E9="LocalDate", "TimeUtil.from(rs.getDate"&amp;G9&amp;")", IF(E9="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G9&amp;")",I9))</f>
-        <v>rs.getBoolean("")</v>
-      </c>
-      <c r="K9" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>form.setIsPreview(rs.getBoolean(""));</v>
-      </c>
-      <c r="L9" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>dto.setIsPreview(log.getIsPreview());</v>
-      </c>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>("")</v>
-      </c>
-      <c r="H10" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>TaskList</v>
-      </c>
-      <c r="I10" s="14" t="str">
-        <f>"rs.get"&amp;UPPER(LEFT(E10,1))&amp;MID(E10,2,LEN(E10)-1)&amp;G10</f>
         <v>rs.getList&lt;TaskDTO&gt;("")</v>
       </c>
-      <c r="J10" s="14" t="str">
-        <f>IF(E10="LocalDate", "TimeUtil.from(rs.getDate"&amp;G10&amp;")", IF(E10="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;G10&amp;")",I10))</f>
-        <v>rs.getList&lt;TaskDTO&gt;("")</v>
-      </c>
-      <c r="K10" s="14" t="str">
-        <f t="shared" si="2"/>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
         <v>form.setTaskList(rs.getList&lt;TaskDTO&gt;(""));</v>
       </c>
-      <c r="L10" s="14" t="str">
-        <f t="shared" si="3"/>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
         <v>dto.setTaskList(log.getTaskList());</v>
       </c>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="21" t="s">
-        <v>216</v>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -54750,7 +54800,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -54758,7 +54808,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1">
@@ -54786,13 +54836,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -54803,16 +54853,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
       </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>70</v>
@@ -54820,16 +54870,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
@@ -54837,16 +54887,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>70</v>
@@ -54854,13 +54904,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
         <v>70</v>

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\ipms\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8826778-03A1-4FF9-B30D-15E15DDE2E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFB4BA-C8B6-4515-AB21-8BA65B549099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="105" windowWidth="18180" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="ReimburseForm" sheetId="2" r:id="rId3"/>
     <sheet name="wf_opt_log" sheetId="5" r:id="rId4"/>
     <sheet name="UserTaskDTO" sheetId="6" r:id="rId5"/>
-    <sheet name="fi_bank_acct" sheetId="3" r:id="rId6"/>
-    <sheet name="fi_cash_book" sheetId="4" r:id="rId7"/>
+    <sheet name="wf_trip" sheetId="8" r:id="rId6"/>
+    <sheet name="TripReimburseForm" sheetId="9" r:id="rId7"/>
+    <sheet name="fi_bank_acct" sheetId="3" r:id="rId8"/>
+    <sheet name="fi_cash_book" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ReimburseForm!$A$1:$L$43</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="303">
   <si>
     <t>cost</t>
   </si>
@@ -855,12 +857,336 @@
     <t>审批节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">String </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差人员，可以多个，用逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差事由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wf_trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripReimburse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripOrigin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrival_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销总额，明细中sum就是费用合计, root中是所有明细的合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领款人(唯一), root中有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他费用项目说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oth_exp_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oth_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowance_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowance_dur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowanceDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowanceExpense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补贴金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherExpenseDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherExpense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripArrival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payee_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payeeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payee_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payeeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领款人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transportation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具，飞机，火车，高铁，其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSPORTATION_AIRPLANE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSPORTATION_CAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自驾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSPORTATION_TRAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSPORTATION_HIGHSPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交出差申请表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策，通过/拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staffList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;TripReimburse&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans_exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transExpense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +1239,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF060607"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -985,7 +1317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1032,6 +1364,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1314,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4B21F6-483A-4C5D-8316-7E412FCC4209}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1464,12 +1800,82 @@
         <v>72</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="C12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1481,8 +1887,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L16387"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -51925,10 +52331,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F46143-B603-41E7-873E-4A7D1CEC9762}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="A34" sqref="A34:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -51945,7 +52351,7 @@
     <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -51954,7 +52360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -51966,7 +52372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -52004,8 +52410,11 @@
       <c r="M3" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1">
+      <c r="N3" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -52045,7 +52454,7 @@
         <v>form.setId(rs.getString("id"));</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:14" hidden="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -52079,7 +52488,7 @@
         <v>form.setCost(rs.getDouble("cost"));</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:14" hidden="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -52113,7 +52522,7 @@
         <v>form.setVoucherNum(rs.getInt("voucher_num"));</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:14" hidden="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -52147,7 +52556,7 @@
         <v>form.setRbsDate(TimeUtil.from(rs.getDate("rbs_date")));</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:14" hidden="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -52181,7 +52590,7 @@
         <v>form.setRbsType(rs.getString("rbs_type"));</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:14" hidden="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -52215,7 +52624,7 @@
         <v>form.setReason(rs.getString("reason_"));</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:14" hidden="1">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -52249,7 +52658,7 @@
         <v>form.setCompany(rs.getString("company"));</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:14" hidden="1">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -52283,7 +52692,7 @@
         <v>form.setDepartmentId(rs.getString("dept_id"));</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:14" hidden="1">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -52317,7 +52726,7 @@
         <v>form.setDepartmentName(rs.getString("dept_name"));</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:14" hidden="1">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -52351,7 +52760,7 @@
         <v>form.setTeamId(rs.getString("team_id"));</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:14" hidden="1">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -52385,7 +52794,7 @@
         <v>form.setTeamName(rs.getString("team_name"));</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:14" hidden="1">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -52419,7 +52828,7 @@
         <v>form.setProject(rs.getString("project"));</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -53003,7 +53412,7 @@
         <v>form.setCreateUserid(rs.getString("create_userid"));</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:14" hidden="1">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -53037,7 +53446,7 @@
         <v>form.setCreateUsername(rs.getString("create_username"));</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>84</v>
       </c>
@@ -53073,8 +53482,12 @@
         <f t="shared" ref="L34:L42" si="6">"form.set"&amp;I34&amp;"("&amp;K34&amp;");"</f>
         <v>form.setCurrentTaskId(rs.getString("cur_task_id"));</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="N34" t="str">
+        <f>"private "&amp;F34&amp;" "&amp;D34&amp;";"</f>
+        <v>private String currentTaskId;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -53110,8 +53523,12 @@
         <f t="shared" ref="L35" si="10">"form.set"&amp;I35&amp;"("&amp;K35&amp;");"</f>
         <v>form.setCurrentTaskDefId(rs.getString("cur_task_def_id"));</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="N35" t="str">
+        <f t="shared" ref="N35:N44" si="11">"private "&amp;F35&amp;" "&amp;D35&amp;";"</f>
+        <v>private String currentTaskDefId;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -53147,8 +53564,12 @@
         <f t="shared" si="6"/>
         <v>form.setCurrentTaskName(rs.getString("cur_task_name"));</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="N36" t="str">
+        <f t="shared" si="11"/>
+        <v>private String currentTaskName;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>106</v>
       </c>
@@ -53184,8 +53605,12 @@
         <f t="shared" si="6"/>
         <v>form.setCurrentTaskAssigneeId(rs.getString("cur_task_assignee_id"));</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="N37" t="str">
+        <f t="shared" si="11"/>
+        <v>private String currentTaskAssigneeId;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -53221,8 +53646,12 @@
         <f t="shared" si="6"/>
         <v>form.setCurrentTaskAssigneeName(rs.getString("cur_task_assignee_name"));</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="N38" t="str">
+        <f t="shared" si="11"/>
+        <v>private String currentTaskAssigneeName;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
@@ -53258,8 +53687,12 @@
         <f t="shared" si="6"/>
         <v>form.setInvokedTaskId(rs.getString("inv_task_id"));</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="N39" t="str">
+        <f t="shared" si="11"/>
+        <v>private String invokedTaskId;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -53292,8 +53725,12 @@
         <f t="shared" si="6"/>
         <v>form.setInvokedTaskName(rs.getString("inv_task_name"));</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="N40" t="str">
+        <f t="shared" si="11"/>
+        <v>private String invokedTaskName;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -53326,8 +53763,12 @@
         <f t="shared" si="6"/>
         <v>form.setInvokedTaskAssigneeId(rs.getString("inv_task_assignee_id"));</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="N41" t="str">
+        <f t="shared" si="11"/>
+        <v>private String invokedTaskAssigneeId;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
@@ -53360,8 +53801,12 @@
         <f t="shared" si="6"/>
         <v>form.setInvokedTaskAssigneeName(rs.getString("inv_task_assignee_name"));</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="N42" t="str">
+        <f t="shared" si="11"/>
+        <v>private String invokedTaskAssigneeName;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -53379,23 +53824,27 @@
         <v>70</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" ref="I43" si="11">UPPER(LEFT(D43,1))&amp;MID(D43,2,LEN(D43)-1)</f>
+        <f t="shared" ref="I43" si="12">UPPER(LEFT(D43,1))&amp;MID(D43,2,LEN(D43)-1)</f>
         <v>InvokedTaskDefId</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" ref="J43" si="12">"rs.get"&amp;UPPER(LEFT(F43,1))&amp;MID(F43,2,LEN(F43)-1)&amp;"("""&amp;A43&amp;""")"</f>
+        <f t="shared" ref="J43" si="13">"rs.get"&amp;UPPER(LEFT(F43,1))&amp;MID(F43,2,LEN(F43)-1)&amp;"("""&amp;A43&amp;""")"</f>
         <v>rs.getString("inv_task_def_id")</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" ref="K43" si="13">IF(F43="LocalDate", "TimeUtil.from(rs.getDate"&amp;B43&amp;")", IF(F43="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;B43&amp;")",J43))</f>
+        <f t="shared" ref="K43" si="14">IF(F43="LocalDate", "TimeUtil.from(rs.getDate"&amp;B43&amp;")", IF(F43="LocalDateTime", "TimeUtil.from(rs.getTimestamp"&amp;B43&amp;")",J43))</f>
         <v>rs.getString("inv_task_def_id")</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" ref="L43" si="14">"form.set"&amp;I43&amp;"("&amp;K43&amp;");"</f>
+        <f t="shared" ref="L43" si="15">"form.set"&amp;I43&amp;"("&amp;K43&amp;");"</f>
         <v>form.setInvokedTaskDefId(rs.getString("inv_task_def_id"));</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="N43" t="str">
+        <f t="shared" si="11"/>
+        <v>private String invokedTaskDefId;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
         <v>133</v>
       </c>
@@ -53431,14 +53880,18 @@
         <f>"form.set"&amp;I44&amp;"("&amp;K44&amp;");"</f>
         <v>form.setIsApproveUser(rs.getBoolean("isApproveUser"));</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="N44" t="str">
+        <f t="shared" si="11"/>
+        <v>private boolean isApproveUser;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -53471,45 +53924,45 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:14">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT(A47,", ")</f>
         <v xml:space="preserve">cur_task_id, </v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" ref="B48:K48" si="15">_xlfn.CONCAT(B47,", ")</f>
+        <f t="shared" ref="B48:K48" si="16">_xlfn.CONCAT(B47,", ")</f>
         <v xml:space="preserve">cur_task_def_id, </v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">cur_task_name, </v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">cur_task_assignee, </v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">cur_task_assignee_name, </v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">inv_task_id, </v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">inv_task_name, </v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">inv_task_assignee_id, </v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">inv_task_assignee_name, </v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v xml:space="preserve">inv_task_def_id, </v>
       </c>
     </row>
@@ -53519,39 +53972,39 @@
         <v xml:space="preserve">null as cur_task_id, </v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" ref="B49:K49" si="16">_xlfn.CONCAT("null as ", B48)</f>
+        <f t="shared" ref="B49:K49" si="17">_xlfn.CONCAT("null as ", B48)</f>
         <v xml:space="preserve">null as cur_task_def_id, </v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">null as cur_task_name, </v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">null as cur_task_assignee, </v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">null as cur_task_assignee_name, </v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">null as inv_task_id, </v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">null as inv_task_name, </v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">null as inv_task_assignee_id, </v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">null as inv_task_assignee_name, </v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">null as inv_task_def_id, </v>
       </c>
     </row>
@@ -54436,7 +54889,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -54783,6 +55236,636 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2974F427-3DC7-42D0-B097-5A6FFE943515}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"private "&amp;E4&amp;" "&amp;C4&amp;";"</f>
+        <v>private String  id;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G24" si="0">"private "&amp;E5&amp;" "&amp;C5&amp;";"</f>
+        <v>private String  rootId;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  deptId;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  deptName;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  staff;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  reason;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>private LocalDate tripStartDate;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>private LocalDate tripEndDate;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  tripOrigin;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  tripArrival;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>private double allowanceDuration;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>private BigDecimal allowanceExpense;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  otherExpenseDesc;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  otherExpense;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>private BigDecimal sum;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  payeeId;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  payeeName;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>private int sort;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  transportation;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" t="str">
+        <f>"private "&amp;E23&amp;" "&amp;C23&amp;";"</f>
+        <v>private BigDecimal transExpense;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>private String  company;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D22" location="Constants!A9" display="交通工具，飞机，火车，高铁，其他" xr:uid="{9CB03BE9-F714-4325-9E64-936C2D2494A2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E4236B-79D3-45EB-8EAD-5B3DD38441D6}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"private "&amp;C5&amp;" "&amp;A5&amp;";"</f>
+        <v>private String comment;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"private "&amp;C6&amp;" "&amp;A6&amp;";"</f>
+        <v>private String decision;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"private "&amp;C7&amp;" "&amp;A7&amp;";"</f>
+        <v>private List&lt;String&gt; staffList;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"private "&amp;C8&amp;" "&amp;A8&amp;";"</f>
+        <v>private List&lt;TripReimburse&gt; items;</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7461077-6F33-494D-B2B6-79F0A611CC60}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -54922,7 +56005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7E7C1-1A97-4A49-BB1D-306669F73E82}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/doc/db.xlsx
+++ b/doc/db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\ipms\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFB4BA-C8B6-4515-AB21-8BA65B549099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D149A98-6D8A-4F08-BCDC-CE4DBF55C01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="wf_trip" sheetId="8" r:id="rId6"/>
     <sheet name="TripReimburseForm" sheetId="9" r:id="rId7"/>
     <sheet name="fi_bank_acct" sheetId="3" r:id="rId8"/>
-    <sheet name="fi_cash_book" sheetId="4" r:id="rId9"/>
+    <sheet name="fi_credit_book" sheetId="4" r:id="rId9"/>
+    <sheet name="fi_debit_book" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ReimburseForm!$A$1:$L$43</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="463">
   <si>
     <t>cost</t>
   </si>
@@ -1181,6 +1182,645 @@
     <t>交通费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>fi_credit_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方信息记录（现金流入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款帐户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款帐户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditBookKeeping</t>
+  </si>
+  <si>
+    <t>CreditBookKeeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bank_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payBankId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款银行关联id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流入类别,检验检测，技术服务，产品销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入性质: 应收，现收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明（事由），关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票扫描，关联url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officer_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办理人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Prop&amp;Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联业务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isKeep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否记账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否记账，true已记账，false未记账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String type;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String nature;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String reason;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String project;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private double amount;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String invoiceUrl;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String payBankId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String payCompany;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String payBank;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String payAccount;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private LocalDateTime payDate;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String receiveBank;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String receiveAccount;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String officerId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String officerName;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String remark;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String businessId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private boolean isKeep;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi_debit_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方信息记录（现金流出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inv_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoiceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票据种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_acc_bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payAccountBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_acc_bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款账号银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String expenseType;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String invoiceType;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String payType;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String payAccountBank;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String receiveUser;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveAccountBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biz_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联业务详情url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出纳名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管会计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi_manager_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fi_manager_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financeManagerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financeManagerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String receiveAccountBank;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashier_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashier_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashierName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="id", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="type_", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="nature_", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="reason_", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="project_", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="amount", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="invoice_url", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="pay_bank_id", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="pay_company", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="pay_bank", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="pay_account", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="pay_date", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="rec_bank", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="rec_account", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="officer_id", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="officer_name", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="remark", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="biz_id", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="is_keep", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="exp_type", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="inv_type", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="pay_type", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="pay_acc", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="pay_acc_bank", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="rec_acc", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="rec_acc_bank", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="rec_userid", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="biz_url", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String businessUrl;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="cashier_id", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String cashier;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="cashier_name", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String cashierName;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="fi_manager_id", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String financeManagerId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Column(name="fi_manager_name", columnDefinition="VARCHAR(128)")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private String financeManagerName;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveUsername</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveUserid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1317,7 +1957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1359,13 +1999,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,6 +2300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4B21F6-483A-4C5D-8316-7E412FCC4209}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1713,10 +2364,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>197</v>
       </c>
       <c r="C4" t="s">
@@ -1733,8 +2384,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" t="s">
         <v>218</v>
       </c>
@@ -1749,8 +2400,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
         <v>205</v>
       </c>
@@ -1765,10 +2416,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>198</v>
       </c>
       <c r="C7" t="s">
@@ -1785,8 +2436,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" t="s">
         <v>207</v>
       </c>
@@ -1801,10 +2452,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>278</v>
       </c>
       <c r="C9" t="s">
@@ -1821,8 +2472,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" t="s">
         <v>279</v>
       </c>
@@ -1837,8 +2488,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" t="s">
         <v>283</v>
       </c>
@@ -1853,8 +2504,8 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" t="s">
         <v>286</v>
       </c>
@@ -1882,13 +2533,418 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A504071-80C4-4182-8CB0-533A215C6BAC}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="H4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="H6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="H7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="H8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" t="s">
+        <v>462</v>
+      </c>
+      <c r="D13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="H13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="H15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="H16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="H17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" t="s">
+        <v>413</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="H20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L16387"/>
+  <dimension ref="A1:L16386"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -52317,9 +53373,6 @@
     </row>
     <row r="16386" spans="1:1">
       <c r="A16386" s="1"/>
-    </row>
-    <row r="16387" spans="1:1">
-      <c r="A16387" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -54039,6 +55092,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569424EB-DB18-4DB4-868D-9343CC62DF85}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54886,6 +55940,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066959E3-AEB6-4CAC-A71E-6069C712B8FD}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55237,10 +56292,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2974F427-3DC7-42D0-B097-5A6FFE943515}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -55680,7 +56736,7 @@
       <c r="B22" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>276</v>
       </c>
       <c r="D22" s="15" t="s">
@@ -55748,6 +56804,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E4236B-79D3-45EB-8EAD-5B3DD38441D6}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55867,15 +56924,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7461077-6F33-494D-B2B6-79F0A611CC60}">
-  <dimension ref="A1:G8"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -55914,7 +56974,7 @@
         <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -55933,6 +56993,10 @@
       <c r="F4" t="s">
         <v>54</v>
       </c>
+      <c r="G4" t="str">
+        <f>"private "&amp;E4&amp;" "&amp;C4&amp;";"</f>
+        <v>private String id;</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -55950,6 +57014,10 @@
       <c r="E5" t="s">
         <v>70</v>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G9" si="0">"private "&amp;E5&amp;" "&amp;C5&amp;";"</f>
+        <v>private String account;</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -55967,6 +57035,10 @@
       <c r="E6" t="s">
         <v>70</v>
       </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>private String bank;</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -55984,11 +57056,18 @@
       <c r="E7" t="s">
         <v>70</v>
       </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>private String type;</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
       <c r="C8" t="s">
         <v>125</v>
       </c>
@@ -55997,23 +57076,548 @@
       </c>
       <c r="E8" t="s">
         <v>70</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>private String company;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>private String address;</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7E7C1-1A97-4A49-BB1D-306669F73E82}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="28.5">
+      <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5">
+      <c r="A5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="H5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.5">
+      <c r="A6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.5">
+      <c r="A7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="H7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5">
+      <c r="A8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="H8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.5">
+      <c r="A9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="H9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.5">
+      <c r="A10" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="H10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5">
+      <c r="A11" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="H11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5">
+      <c r="A12" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="H12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5">
+      <c r="A13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="H13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.5">
+      <c r="A14" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.5">
+      <c r="A15" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="H15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5">
+      <c r="A16" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="H16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.5">
+      <c r="A17" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5">
+      <c r="A18" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="H18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.5">
+      <c r="A19" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.5">
+      <c r="A20" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="H20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.5">
+      <c r="A21" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="H21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.5">
+      <c r="A22" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>